--- a/On-Call-Tracker/src/inputs/Absences.xlsx
+++ b/On-Call-Tracker/src/inputs/Absences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fall 2022\cs2043\Git Repo\OCT-T9\On-Call-Tracker\src\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543413BB-DBF4-A842-A5DE-85D242601523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E0E5C1-E8EB-4A14-930E-145EE2A1A616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28820" yWindow="520" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="74">
   <si>
     <t>P2</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Yvette Landry</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -826,17 +829,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BC0D4-2DE4-4A45-B4B4-B0FB4C2E6F0B}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -869,7 +872,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -932,7 +935,1755 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="7"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="7"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="7"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="7"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="7"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="7"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="7"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="7"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="7"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="7"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="7"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="7"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="7"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="7"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="7"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="7"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="7"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="7"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="7"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="7"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="7"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="7"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="7"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="7"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="7"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="7"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="7"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="7"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="7"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="7"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="7"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="7"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="7"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="7"/>
+    </row>
+    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="10"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EFE63D-6B26-F34D-A8D1-F1123F477C1B}">
+  <dimension ref="A1:U69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -957,7 +2708,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -982,7 +2733,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +2758,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1032,7 +2783,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +2808,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -1082,7 +2833,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +2858,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1132,7 +2883,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -1157,7 +2908,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
@@ -1182,7 +2933,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +2958,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +2983,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1257,7 +3008,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1282,7 +3033,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1307,7 +3058,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -1332,7 +3083,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +3108,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +3133,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -1407,7 +3158,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1432,7 +3183,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
@@ -1457,7 +3208,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -1482,7 +3233,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -1507,7 +3258,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -1532,7 +3283,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -1557,7 +3308,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1582,7 +3333,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1607,7 +3358,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -1632,7 +3383,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1657,7 +3408,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -1682,7 +3433,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1707,7 +3458,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -1732,7 +3483,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -1757,7 +3508,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
@@ -1782,7 +3533,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1807,7 +3558,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -1832,7 +3583,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +3608,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -1882,7 +3633,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -1907,7 +3658,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>48</v>
       </c>
@@ -1932,7 +3683,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -1957,7 +3708,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
@@ -1982,7 +3733,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
@@ -2007,7 +3758,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -2032,7 +3783,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
@@ -2057,7 +3808,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -2082,7 +3833,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>55</v>
       </c>
@@ -2107,7 +3858,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -2132,7 +3883,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>57</v>
       </c>
@@ -2157,7 +3908,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>58</v>
       </c>
@@ -2182,7 +3933,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -2207,7 +3958,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -2232,7 +3983,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -2257,7 +4008,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -2282,7 +4033,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -2307,7 +4058,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>64</v>
       </c>
@@ -2332,7 +4083,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
@@ -2357,7 +4108,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
@@ -2382,7 +4133,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -2407,7 +4158,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
@@ -2432,7 +4183,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
@@ -2457,7 +4208,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
@@ -2482,7 +4233,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
@@ -2507,7 +4258,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>72</v>
       </c>
@@ -2532,1745 +4283,13 @@
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23EFE63D-6B26-F34D-A8D1-F1123F477C1B}">
-  <dimension ref="A1:U69"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="7"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="7"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="7"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="7"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="7"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="7"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="7"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="7"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="7"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="7"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="7"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="7"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="7"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="7"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="7"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="7"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="7"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="7"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="7"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="7"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="7"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="7"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="7"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="7"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="7"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="7"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="7"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="7"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="7"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="7"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="7"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="7"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="7"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="7"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="7"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="7"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="7"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="7"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="7"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="7"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="7"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="7"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="7"/>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="7"/>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="7"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="7"/>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="7"/>
-    </row>
-    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="9"/>
-      <c r="P66" s="9"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="8"/>
-      <c r="S66" s="9"/>
-      <c r="T66" s="9"/>
-      <c r="U66" s="10"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
   </sheetData>
@@ -4294,13 +4313,13 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -4333,7 +4352,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -4396,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -4421,7 +4440,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -4446,7 +4465,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -4471,7 +4490,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -4496,7 +4515,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -4521,7 +4540,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -4546,7 +4565,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -4571,7 +4590,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -4596,7 +4615,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -4621,7 +4640,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
@@ -4646,7 +4665,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -4671,7 +4690,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -4696,7 +4715,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -4721,7 +4740,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -4746,7 +4765,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -4771,7 +4790,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -4796,7 +4815,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -4821,7 +4840,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -4846,7 +4865,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -4871,7 +4890,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -4896,7 +4915,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
@@ -4921,7 +4940,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -4946,7 +4965,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -4971,7 +4990,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -4996,7 +5015,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -5021,7 +5040,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
@@ -5046,7 +5065,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
@@ -5071,7 +5090,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -5096,7 +5115,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -5121,7 +5140,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -5146,7 +5165,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
@@ -5171,7 +5190,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -5196,7 +5215,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -5221,7 +5240,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
@@ -5246,7 +5265,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
@@ -5271,7 +5290,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -5296,7 +5315,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -5321,7 +5340,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -5346,7 +5365,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -5371,7 +5390,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>48</v>
       </c>
@@ -5396,7 +5415,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -5421,7 +5440,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
@@ -5446,7 +5465,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
@@ -5471,7 +5490,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -5496,7 +5515,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
@@ -5521,7 +5540,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -5546,7 +5565,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>55</v>
       </c>
@@ -5571,7 +5590,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -5596,7 +5615,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>57</v>
       </c>
@@ -5621,7 +5640,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>58</v>
       </c>
@@ -5646,7 +5665,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -5671,7 +5690,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -5696,7 +5715,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -5721,7 +5740,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -5746,7 +5765,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -5771,7 +5790,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>64</v>
       </c>
@@ -5796,7 +5815,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
@@ -5821,7 +5840,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
@@ -5846,7 +5865,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -5871,7 +5890,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
@@ -5896,7 +5915,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
@@ -5921,7 +5940,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
@@ -5946,7 +5965,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
@@ -5971,7 +5990,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>72</v>
       </c>
@@ -5996,13 +6015,13 @@
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
   </sheetData>
@@ -6022,17 +6041,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7DD55D0-384E-7F4A-A86A-25EE583BA716}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
-    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -6065,7 +6084,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -6128,7 +6147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -6153,7 +6172,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -6178,7 +6197,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -6203,7 +6222,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -6228,7 +6247,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -6253,7 +6272,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -6278,7 +6297,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -6303,7 +6322,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -6328,7 +6347,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -6353,7 +6372,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
@@ -6378,7 +6397,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -6403,7 +6422,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -6428,7 +6447,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -6453,7 +6472,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -6478,7 +6497,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -6503,7 +6522,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -6528,7 +6547,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -6553,7 +6572,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -6578,7 +6597,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -6603,7 +6622,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -6628,7 +6647,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
@@ -6653,7 +6672,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -6678,7 +6697,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -6703,7 +6722,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -6728,7 +6747,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -6753,7 +6772,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
@@ -6778,7 +6797,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
@@ -6803,7 +6822,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -6828,7 +6847,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -6853,7 +6872,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -6878,7 +6897,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
@@ -6903,7 +6922,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -6928,7 +6947,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -6953,7 +6972,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
@@ -6978,7 +6997,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
@@ -7003,7 +7022,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -7028,7 +7047,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -7053,7 +7072,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -7078,7 +7097,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -7103,7 +7122,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>48</v>
       </c>
@@ -7128,7 +7147,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -7153,7 +7172,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
@@ -7178,7 +7197,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
@@ -7203,7 +7222,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -7228,7 +7247,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
@@ -7253,7 +7272,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -7278,7 +7297,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>55</v>
       </c>
@@ -7303,7 +7322,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -7328,7 +7347,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>57</v>
       </c>
@@ -7353,7 +7372,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>58</v>
       </c>
@@ -7378,7 +7397,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -7403,7 +7422,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -7428,7 +7447,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -7453,7 +7472,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -7478,7 +7497,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -7503,7 +7522,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>64</v>
       </c>
@@ -7528,7 +7547,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
@@ -7553,7 +7572,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
@@ -7578,7 +7597,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -7603,7 +7622,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
@@ -7628,7 +7647,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
@@ -7653,7 +7672,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
@@ -7678,7 +7697,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
@@ -7703,7 +7722,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
         <v>72</v>
       </c>
@@ -7728,13 +7747,13 @@
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
   </sheetData>

--- a/On-Call-Tracker/src/inputs/Absences.xlsx
+++ b/On-Call-Tracker/src/inputs/Absences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fall 2022\cs2043\Git Repo\OCT-T9\On-Call-Tracker\src\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E0E5C1-E8EB-4A14-930E-145EE2A1A616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE7E42E-DB19-4806-AB23-FBF5FDBC5663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4290" yWindow="4215" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
   <si>
     <t>P2</t>
   </si>
@@ -830,7 +830,7 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +943,9 @@
         <v>73</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="6"/>
       <c r="G3" s="3"/>

--- a/On-Call-Tracker/src/inputs/Absences.xlsx
+++ b/On-Call-Tracker/src/inputs/Absences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fall 2022\cs2043\Git Repo\OCT-T9\On-Call-Tracker\src\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE7E42E-DB19-4806-AB23-FBF5FDBC5663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4081E-0094-9A42-8F55-4FEAF7112A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4215" windowWidth="16200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75000" yWindow="7620" windowWidth="16200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="74">
   <si>
     <t>P2</t>
   </si>
@@ -829,17 +829,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267BC0D4-2DE4-4A45-B4B4-B0FB4C2E6F0B}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -872,7 +872,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -964,7 +964,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1018,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1153,7 +1153,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1203,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -1328,7 +1328,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -1428,7 +1428,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1453,11 +1453,13 @@
       <c r="T22" s="3"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="7"/>
@@ -1478,7 +1480,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -1503,7 +1505,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -1528,7 +1530,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -1553,7 +1555,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -1578,7 +1580,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +1605,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
@@ -1628,7 +1630,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1655,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -1678,7 +1680,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -1703,7 +1705,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
@@ -1728,7 +1730,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -1753,7 +1755,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -1778,7 +1780,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
@@ -1803,7 +1805,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1828,7 +1830,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -1853,7 +1855,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -1878,7 +1880,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -1903,7 +1905,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -1928,7 +1930,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>48</v>
       </c>
@@ -1953,7 +1955,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -1978,7 +1980,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
@@ -2003,7 +2005,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
@@ -2028,7 +2030,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -2053,7 +2055,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
@@ -2078,7 +2080,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -2103,7 +2105,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>55</v>
       </c>
@@ -2128,7 +2130,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -2153,7 +2155,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>57</v>
       </c>
@@ -2178,7 +2180,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>58</v>
       </c>
@@ -2203,7 +2205,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -2228,7 +2230,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -2253,7 +2255,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -2278,7 +2280,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -2303,7 +2305,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -2328,7 +2330,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>64</v>
       </c>
@@ -2353,7 +2355,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
@@ -2378,7 +2380,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
@@ -2403,7 +2405,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -2428,7 +2430,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
@@ -2453,7 +2455,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
@@ -2478,7 +2480,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
@@ -2503,7 +2505,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
@@ -2528,7 +2530,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>72</v>
       </c>
@@ -2553,13 +2555,13 @@
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
   </sheetData>
@@ -2583,13 +2585,13 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -2622,7 +2624,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -2685,7 +2687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -2710,7 +2712,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -2735,7 +2737,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -2760,7 +2762,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -2785,7 +2787,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -2810,7 +2812,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -2835,7 +2837,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -2860,7 +2862,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2885,7 +2887,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -2910,7 +2912,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
@@ -2935,7 +2937,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -2960,7 +2962,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -2985,7 +2987,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -3010,7 +3012,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -3035,7 +3037,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -3060,7 +3062,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -3085,7 +3087,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3112,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -3135,7 +3137,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -3160,7 +3162,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -3185,7 +3187,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
@@ -3210,7 +3212,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -3235,7 +3237,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -3260,7 +3262,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -3285,7 +3287,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -3310,7 +3312,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
@@ -3335,7 +3337,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
@@ -3360,7 +3362,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -3385,7 +3387,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -3410,7 +3412,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -3435,7 +3437,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
@@ -3460,7 +3462,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -3485,7 +3487,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -3510,7 +3512,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
@@ -3535,7 +3537,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
@@ -3560,7 +3562,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -3585,7 +3587,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -3610,7 +3612,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -3635,7 +3637,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -3660,7 +3662,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>48</v>
       </c>
@@ -3685,7 +3687,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -3710,7 +3712,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
@@ -3760,7 +3762,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -3785,7 +3787,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
@@ -3810,7 +3812,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -3835,7 +3837,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>55</v>
       </c>
@@ -3860,7 +3862,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -3885,7 +3887,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>57</v>
       </c>
@@ -3910,7 +3912,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>58</v>
       </c>
@@ -3935,7 +3937,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -3960,7 +3962,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -3985,7 +3987,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -4010,7 +4012,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -4035,7 +4037,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -4060,7 +4062,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>64</v>
       </c>
@@ -4085,7 +4087,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
@@ -4110,7 +4112,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
@@ -4135,7 +4137,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -4160,7 +4162,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
@@ -4185,7 +4187,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
@@ -4210,7 +4212,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
@@ -4235,7 +4237,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
@@ -4260,7 +4262,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>72</v>
       </c>
@@ -4285,13 +4287,13 @@
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
   </sheetData>
@@ -4315,13 +4317,13 @@
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -4354,7 +4356,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -4417,7 +4419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -4442,7 +4444,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -4467,7 +4469,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -4492,7 +4494,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -4517,7 +4519,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -4542,7 +4544,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -4567,7 +4569,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -4592,7 +4594,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -4617,7 +4619,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -4642,7 +4644,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
@@ -4667,7 +4669,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -4692,7 +4694,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -4717,7 +4719,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -4742,7 +4744,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -4767,7 +4769,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -4792,7 +4794,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -4817,7 +4819,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -4842,7 +4844,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -4867,7 +4869,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -4892,7 +4894,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -4917,7 +4919,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
@@ -4942,7 +4944,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -4967,7 +4969,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -4992,7 +4994,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -5017,7 +5019,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -5042,7 +5044,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
@@ -5067,7 +5069,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
@@ -5092,7 +5094,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -5117,7 +5119,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -5142,7 +5144,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -5167,7 +5169,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
@@ -5192,7 +5194,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -5217,7 +5219,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -5242,7 +5244,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
@@ -5267,7 +5269,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
@@ -5292,7 +5294,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -5317,7 +5319,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -5342,7 +5344,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -5367,7 +5369,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -5392,7 +5394,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>48</v>
       </c>
@@ -5417,7 +5419,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -5442,7 +5444,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
@@ -5467,7 +5469,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
@@ -5492,7 +5494,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -5517,7 +5519,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
@@ -5542,7 +5544,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -5567,7 +5569,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>55</v>
       </c>
@@ -5592,7 +5594,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -5617,7 +5619,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>57</v>
       </c>
@@ -5642,7 +5644,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>58</v>
       </c>
@@ -5667,7 +5669,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -5692,7 +5694,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -5717,7 +5719,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -5742,7 +5744,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -5767,7 +5769,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -5792,7 +5794,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>64</v>
       </c>
@@ -5817,7 +5819,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
@@ -5842,7 +5844,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
@@ -5867,7 +5869,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -5892,7 +5894,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
@@ -5917,7 +5919,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
@@ -5942,7 +5944,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
@@ -5967,7 +5969,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
@@ -5992,7 +5994,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>72</v>
       </c>
@@ -6017,13 +6019,13 @@
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
   </sheetData>
@@ -6047,13 +6049,13 @@
       <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="21" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="21" width="4.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="11"/>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -6086,7 +6088,7 @@
       <c r="T1" s="17"/>
       <c r="U1" s="18"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -6149,7 +6151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>9</v>
       </c>
@@ -6174,7 +6176,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -6199,7 +6201,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -6224,7 +6226,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -6249,7 +6251,7 @@
       <c r="T6" s="3"/>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -6274,7 +6276,7 @@
       <c r="T7" s="3"/>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -6299,7 +6301,7 @@
       <c r="T8" s="3"/>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
@@ -6324,7 +6326,7 @@
       <c r="T9" s="3"/>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -6349,7 +6351,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -6374,7 +6376,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>18</v>
       </c>
@@ -6399,7 +6401,7 @@
       <c r="T12" s="3"/>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>19</v>
       </c>
@@ -6424,7 +6426,7 @@
       <c r="T13" s="3"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
@@ -6449,7 +6451,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
@@ -6474,7 +6476,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
@@ -6499,7 +6501,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>23</v>
       </c>
@@ -6524,7 +6526,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>24</v>
       </c>
@@ -6549,7 +6551,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>25</v>
       </c>
@@ -6574,7 +6576,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>26</v>
       </c>
@@ -6599,7 +6601,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -6624,7 +6626,7 @@
       <c r="T21" s="3"/>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>28</v>
       </c>
@@ -6649,7 +6651,7 @@
       <c r="T22" s="3"/>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>29</v>
       </c>
@@ -6674,7 +6676,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="7"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -6699,7 +6701,7 @@
       <c r="T24" s="3"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -6724,7 +6726,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="7"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
@@ -6749,7 +6751,7 @@
       <c r="T26" s="3"/>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
@@ -6774,7 +6776,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
         <v>34</v>
       </c>
@@ -6799,7 +6801,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
         <v>35</v>
       </c>
@@ -6824,7 +6826,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
@@ -6849,7 +6851,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -6874,7 +6876,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
@@ -6899,7 +6901,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
@@ -6924,7 +6926,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
         <v>40</v>
       </c>
@@ -6949,7 +6951,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>41</v>
       </c>
@@ -6974,7 +6976,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
         <v>42</v>
       </c>
@@ -6999,7 +7001,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="7"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>43</v>
       </c>
@@ -7024,7 +7026,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="7"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>44</v>
       </c>
@@ -7049,7 +7051,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="7"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>45</v>
       </c>
@@ -7074,7 +7076,7 @@
       <c r="T39" s="3"/>
       <c r="U39" s="7"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>46</v>
       </c>
@@ -7099,7 +7101,7 @@
       <c r="T40" s="3"/>
       <c r="U40" s="7"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
@@ -7124,7 +7126,7 @@
       <c r="T41" s="3"/>
       <c r="U41" s="7"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
         <v>48</v>
       </c>
@@ -7149,7 +7151,7 @@
       <c r="T42" s="3"/>
       <c r="U42" s="7"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>49</v>
       </c>
@@ -7174,7 +7176,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="7"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>50</v>
       </c>
@@ -7199,7 +7201,7 @@
       <c r="T44" s="3"/>
       <c r="U44" s="7"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>51</v>
       </c>
@@ -7224,7 +7226,7 @@
       <c r="T45" s="3"/>
       <c r="U45" s="7"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>52</v>
       </c>
@@ -7249,7 +7251,7 @@
       <c r="T46" s="3"/>
       <c r="U46" s="7"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
         <v>53</v>
       </c>
@@ -7274,7 +7276,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="7"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>54</v>
       </c>
@@ -7299,7 +7301,7 @@
       <c r="T48" s="3"/>
       <c r="U48" s="7"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
         <v>55</v>
       </c>
@@ -7324,7 +7326,7 @@
       <c r="T49" s="3"/>
       <c r="U49" s="7"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>56</v>
       </c>
@@ -7349,7 +7351,7 @@
       <c r="T50" s="3"/>
       <c r="U50" s="7"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
         <v>57</v>
       </c>
@@ -7374,7 +7376,7 @@
       <c r="T51" s="3"/>
       <c r="U51" s="7"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
         <v>58</v>
       </c>
@@ -7399,7 +7401,7 @@
       <c r="T52" s="3"/>
       <c r="U52" s="7"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>59</v>
       </c>
@@ -7424,7 +7426,7 @@
       <c r="T53" s="3"/>
       <c r="U53" s="7"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>60</v>
       </c>
@@ -7449,7 +7451,7 @@
       <c r="T54" s="3"/>
       <c r="U54" s="7"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>61</v>
       </c>
@@ -7474,7 +7476,7 @@
       <c r="T55" s="3"/>
       <c r="U55" s="7"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -7499,7 +7501,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="7"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>63</v>
       </c>
@@ -7524,7 +7526,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="7"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
         <v>64</v>
       </c>
@@ -7549,7 +7551,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="7"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
         <v>65</v>
       </c>
@@ -7574,7 +7576,7 @@
       <c r="T59" s="3"/>
       <c r="U59" s="7"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>66</v>
       </c>
@@ -7599,7 +7601,7 @@
       <c r="T60" s="3"/>
       <c r="U60" s="7"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>67</v>
       </c>
@@ -7624,7 +7626,7 @@
       <c r="T61" s="3"/>
       <c r="U61" s="7"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
         <v>68</v>
       </c>
@@ -7649,7 +7651,7 @@
       <c r="T62" s="3"/>
       <c r="U62" s="7"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>69</v>
       </c>
@@ -7674,7 +7676,7 @@
       <c r="T63" s="3"/>
       <c r="U63" s="7"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
@@ -7699,7 +7701,7 @@
       <c r="T64" s="3"/>
       <c r="U64" s="7"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
         <v>71</v>
       </c>
@@ -7724,7 +7726,7 @@
       <c r="T65" s="3"/>
       <c r="U65" s="7"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>72</v>
       </c>
@@ -7749,13 +7751,13 @@
       <c r="T66" s="9"/>
       <c r="U66" s="10"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
   </sheetData>

--- a/On-Call-Tracker/src/inputs/Absences.xlsx
+++ b/On-Call-Tracker/src/inputs/Absences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4081E-0094-9A42-8F55-4FEAF7112A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E3880-35A1-F846-AB1A-15BD98D7375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75000" yWindow="7620" windowWidth="16200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1660" yWindow="1520" windowWidth="16200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
   <si>
     <t>P2</t>
   </si>
@@ -830,7 +830,7 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1130,9 +1130,7 @@
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
@@ -1460,9 +1458,13 @@
       <c r="B23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1559,9 +1561,15 @@
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>

--- a/On-Call-Tracker/src/inputs/Absences.xlsx
+++ b/On-Call-Tracker/src/inputs/Absences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1E3880-35A1-F846-AB1A-15BD98D7375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B4081E-0094-9A42-8F55-4FEAF7112A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1520" windowWidth="16200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75000" yWindow="7620" windowWidth="16200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="7" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="74">
   <si>
     <t>P2</t>
   </si>
@@ -830,7 +830,7 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1130,9 @@
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="7"/>
@@ -1458,13 +1460,9 @@
       <c r="B23" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="7" t="s">
-        <v>73</v>
-      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="6"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1561,15 +1559,9 @@
       <c r="A27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="7"/>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
